--- a/Calibration/Input/calibrationdetails.xlsx
+++ b/Calibration/Input/calibrationdetails.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\OneDrive - EY\Documents\CVA Tool Python\CVA-Tool\Calibration\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4DB114E441178AC67DF4F21ED6C2F0683EDF27" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{77BADFF8-7E87-4BD1-98CE-DC90E012B005}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4DB114E441178AC67DF4F21ED6C2F0683EDF27" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2AD27CCA-CB55-4AB3-AB22-076861DE4BBC}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -33,12 +41,6 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>EUR swaption vols 31122020</t>
-  </si>
-  <si>
     <t>MeanReversion</t>
   </si>
   <si>
@@ -48,10 +50,16 @@
     <t>DiscountCurve</t>
   </si>
   <si>
-    <t>EURIBOR6M 31122020</t>
-  </si>
-  <si>
-    <t>EUROIS 31122020</t>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>USD swaption vols 31122020</t>
+  </si>
+  <si>
+    <t>USD LIBOR3M 31122020</t>
+  </si>
+  <si>
+    <t>USDOIS 31122020</t>
   </si>
 </sst>
 </file>
@@ -87,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +381,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,24 +400,24 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1E-4</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
